--- a/biology/Botanique/Myagrum/Myagrum.xlsx
+++ b/biology/Botanique/Myagrum/Myagrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myagre
 Myagrum, en français Myagre, est un genre de plantes à fleurs annuelles de la famille des Brassicaceae. Une seule espèce est aujourd'hui reconnue : Myagrum perfoliatum.
@@ -512,11 +524,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le naturaliste suédois Carl von Linné décrit le genre en 1753. Il lui attribue alors les espèces Myagrum aegyptium, Myagrum cornutum, Myagrum hispanicum, Myagrum orientale, Myagrum paniculatum, Myagrum perenne, Myagrum perfoliatum, Myagrum rugosum et Myagrum sativum. Seul Myagrum perfoliatum est classé dans ce genre[3],[4],[2]. Les autres sont considérés comme des synonymes d'espèces déplacées dans d'autres genres, ou de Myagrum perfoliatum.
-Liste des espèces
-D'après Tropicos                                           (23 décembre 2020)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le naturaliste suédois Carl von Linné décrit le genre en 1753. Il lui attribue alors les espèces Myagrum aegyptium, Myagrum cornutum, Myagrum hispanicum, Myagrum orientale, Myagrum paniculatum, Myagrum perenne, Myagrum perfoliatum, Myagrum rugosum et Myagrum sativum. Seul Myagrum perfoliatum est classé dans ce genre. Les autres sont considérés comme des synonymes d'espèces déplacées dans d'autres genres, ou de Myagrum perfoliatum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Myagrum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myagrum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Tropicos                                           (23 décembre 2020) :
 Myagrum aegyptium L., 1753
 Myagrum alyssum Mill., 1768
 Myagrum amphibium (L.) Loisel., 1828
@@ -552,37 +601,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Myagrum</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Myagrum</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante annuelle de 20 à 80 cm de hauteur, dressée, souvent ramifiée au sommet. Les feuilles sont entières ou lobées, les caulinaires à oreillettes développées, entièrement glabres et glauques. L'inflorescence forme une panicule terminale en grappes allongées. Les fleurs ont des pétales jaunes de 3 à 5 mm de long. Les silicules sont renflées et ridées sous le sommet. La floraison a lieu de Mai à Juillet[6].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -604,12 +622,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante aime la lumière, les milieux plutôt sec et les sols calcaires[6]. On la rencontre dans les champs et les moissons[7].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle de 20 à 80 cm de hauteur, dressée, souvent ramifiée au sommet. Les feuilles sont entières ou lobées, les caulinaires à oreillettes développées, entièrement glabres et glauques. L'inflorescence forme une panicule terminale en grappes allongées. Les fleurs ont des pétales jaunes de 3 à 5 mm de long. Les silicules sont renflées et ridées sous le sommet. La floraison a lieu de Mai à Juillet.
 </t>
         </is>
       </c>
@@ -635,12 +655,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante aime la lumière, les milieux plutôt sec et les sols calcaires. On la rencontre dans les champs et les moissons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Myagrum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myagrum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Myagrum perfoliatum a pour aire de répartition l'Europe[8]. Elle est présente à l'Est jusqu'en Iran. Elle a été introduite en Australie et au Texas[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Myagrum perfoliatum a pour aire de répartition l'Europe. Elle est présente à l'Est jusqu'en Iran. Elle a été introduite en Australie et au Texas.
 </t>
         </is>
       </c>
